--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_DebtInvestmentProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_DebtInvestmentProfile_AddNewProfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeepika\Documents\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9DB071-658A-4873-BCAB-80F701C578E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E259FAA5-BFAC-4D42-A615-A70309B21222}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="380" windowWidth="19190" windowHeight="10190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -565,21 +565,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -613,7 +613,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
@@ -625,7 +625,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -639,7 +639,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -667,7 +667,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -681,7 +681,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -695,7 +695,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -709,7 +709,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -747,28 +747,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD27D4-17F9-4B9E-9C94-904CD66DAE7D}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,7 +813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -849,12 +850,16 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -868,7 +873,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -882,7 +887,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_DebtInvestmentProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_DebtInvestmentProfile_AddNewProfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeepika\Documents\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E259FAA5-BFAC-4D42-A615-A70309B21222}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CFD09E-A429-44E6-BEE7-642DFCC99DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Iteration</t>
   </si>
@@ -131,21 +131,12 @@
     <t>txt_mpCode_apfa</t>
   </si>
   <si>
-    <t xml:space="preserve"> J02 - J02 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 01 - TEST </t>
   </si>
   <si>
-    <t xml:space="preserve"> G - General Obligation </t>
-  </si>
-  <si>
     <t>radio_button</t>
   </si>
   <si>
-    <t>getData=DeptType</t>
-  </si>
-  <si>
     <t>smallWaitForElementPresent</t>
   </si>
   <si>
@@ -180,6 +171,42 @@
   </si>
   <si>
     <t>dropdown_agency</t>
+  </si>
+  <si>
+    <t>clickRadioButtonByName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J02 - STATE HIGHWAY ADMINISTRATION </t>
+  </si>
+  <si>
+    <t>radioButton_bondClass_apfa</t>
+  </si>
+  <si>
+    <t>radioButton_debtInvestIndicator_apfa</t>
+  </si>
+  <si>
+    <t>getData=RadioBond</t>
+  </si>
+  <si>
+    <t>getData=RadioInd</t>
+  </si>
+  <si>
+    <t>RadioBond</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>RadioInd</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P - Operating Lease </t>
+  </si>
+  <si>
+    <t>getData=DebtType</t>
   </si>
 </sst>
 </file>
@@ -236,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -270,11 +297,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -283,6 +321,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,23 +602,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -599,47 +638,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -653,12 +692,12 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>25</v>
@@ -667,12 +706,12 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
@@ -681,7 +720,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -695,47 +734,75 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -747,29 +814,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD27D4-17F9-4B9E-9C94-904CD66DAE7D}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,14 +855,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>18</v>
@@ -813,7 +880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -827,13 +894,19 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
@@ -847,61 +920,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D941F0FA-6260-43BB-BCAF-45BA75FE373C}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_DebtInvestmentProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_DebtInvestmentProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CFD09E-A429-44E6-BEE7-642DFCC99DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF16174A-FEFD-430C-A6E9-757A5CD8CD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -605,7 +605,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
